--- a/main/resultes.xlsx
+++ b/main/resultes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B4D75-331C-4054-B1D5-406802CB0931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE126A8-2ADB-41AE-8BFD-7DE353165265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{68750A95-64C4-44D4-B364-172E45A2CCF5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
         <v>-1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -991,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>-1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>-1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E94">
         <v>-1</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2481,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>-1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="B157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4136,10 +4136,10 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4167,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="B259">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -5014,13 +5014,13 @@
         <v>1</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -5116,7 +5116,7 @@
         <v>-1</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -5456,7 +5456,7 @@
         <v>-1</v>
       </c>
       <c r="B297">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="E297">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5632,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E307">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -5660,13 +5660,13 @@
         <v>1</v>
       </c>
       <c r="B309">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -6227,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E342">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -6448,7 +6448,7 @@
         <v>-1</v>
       </c>
       <c r="D355">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E363">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -6662,88 +6662,58 @@
       <c r="A368">
         <v>1</v>
       </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368">
         <v>1</v>
       </c>
-      <c r="E368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1</v>
       </c>
-      <c r="B369">
-        <v>1</v>
-      </c>
       <c r="C369">
         <v>1</v>
       </c>
       <c r="D369">
         <v>1</v>
       </c>
-      <c r="E369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1</v>
       </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370">
         <v>1</v>
       </c>
-      <c r="E370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1</v>
       </c>
-      <c r="B371">
-        <v>1</v>
-      </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371">
         <v>1</v>
       </c>
-      <c r="E371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1</v>
       </c>
-      <c r="B372">
-        <v>1</v>
-      </c>
       <c r="C372">
         <v>1</v>
       </c>
       <c r="D372">
         <v>1</v>
       </c>
-      <c r="E372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1</v>
       </c>
@@ -6754,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1</v>
       </c>
@@ -6765,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1</v>
       </c>
@@ -6776,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1</v>
       </c>
@@ -6787,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1</v>
       </c>
@@ -6798,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1</v>
       </c>
@@ -6809,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1</v>
       </c>
@@ -6820,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1</v>
       </c>
@@ -6831,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1</v>
       </c>
@@ -6842,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1</v>
       </c>
@@ -6853,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1</v>
       </c>
@@ -6864,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1</v>
       </c>
@@ -6905,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7807,7 +7777,7 @@
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C538">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.3">

--- a/main/resultes.xlsx
+++ b/main/resultes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE126A8-2ADB-41AE-8BFD-7DE353165265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA347E00-A53E-4A65-A878-0C030598B0E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{68750A95-64C4-44D4-B364-172E45A2CCF5}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{E75AEF88-9505-489E-84E4-46DD07659DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F107A4-2541-4762-9209-77DC06316913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F89CD7-55DC-4FCB-B541-56F2E2162C1D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -410,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F47AC3-FD45-431D-B046-CBF821239BF7}">
-  <dimension ref="A1:E541"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666BB35-C0C5-45C0-A2E4-386216D7A48A}">
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E541"/>
+      <selection sqref="A1:E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -455,19 +455,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -563,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -662,13 +662,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -710,24 +710,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -753,15 +753,15 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -795,53 +795,53 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -931,36 +931,36 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1033,19 +1033,19 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1113,12 +1113,12 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1155,21 +1155,21 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1178,10 +1178,10 @@
         <v>-1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1305,24 +1305,24 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1342,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1382,27 +1382,27 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1498,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1549,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1651,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -1662,16 +1662,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1756,10 +1756,10 @@
         <v>-1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1807,15 +1807,15 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>-1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>-1</v>
       </c>
       <c r="E94">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2104,19 +2104,19 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2240,53 +2240,53 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2348,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2382,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -2461,47 +2461,47 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D128">
         <v>-1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2603,30 +2603,30 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2691,15 +2691,15 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2708,27 +2708,27 @@
         <v>-1</v>
       </c>
       <c r="D135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2736,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2776,15 +2776,15 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2852,33 +2852,33 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2898,12 +2898,12 @@
         <v>-1</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D150">
         <v>-1</v>
@@ -2977,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3017,12 +3017,12 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -3031,27 +3031,27 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3090,41 +3090,41 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>-1</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3192,16 +3192,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D165">
         <v>-1</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -3413,19 +3413,19 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="B183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C185">
         <v>-1</v>
@@ -3569,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="B188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3654,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="B217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4161,16 +4161,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -4221,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4419,13 +4419,13 @@
         <v>1</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4632,3166 +4632,6 @@
         <v>1</v>
       </c>
       <c r="E248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>-1</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>1</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263">
-        <v>1</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>-1</v>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-      <c r="C273">
-        <v>-1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>1</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>-1</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>1</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <v>1</v>
-      </c>
-      <c r="E278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <v>-1</v>
-      </c>
-      <c r="D279">
-        <v>1</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
-      </c>
-      <c r="E280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
-      </c>
-      <c r="E281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>1</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-      <c r="C282">
-        <v>-1</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>1</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285">
-        <v>1</v>
-      </c>
-      <c r="E285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>1</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>1</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>1</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>1</v>
-      </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>1</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-      <c r="C290">
-        <v>1</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>1</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>1</v>
-      </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292">
-        <v>-1</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
-        <v>-1</v>
-      </c>
-      <c r="D293">
-        <v>1</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294">
-        <v>1</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>1</v>
-      </c>
-      <c r="B295">
-        <v>1</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>1</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>1</v>
-      </c>
-      <c r="B296">
-        <v>-1</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296">
-        <v>1</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>-1</v>
-      </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-      <c r="E298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>1</v>
-      </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-      <c r="E299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>1</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>-1</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>1</v>
-      </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>1</v>
-      </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-      <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-      <c r="E302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>1</v>
-      </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303">
-        <v>1</v>
-      </c>
-      <c r="E303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>1</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>1</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>1</v>
-      </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>1</v>
-      </c>
-      <c r="E305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>1</v>
-      </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306">
-        <v>-1</v>
-      </c>
-      <c r="D306">
-        <v>1</v>
-      </c>
-      <c r="E306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307">
-        <v>-1</v>
-      </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>1</v>
-      </c>
-      <c r="E307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>1</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
-      </c>
-      <c r="E308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>1</v>
-      </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309">
-        <v>-1</v>
-      </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>1</v>
-      </c>
-      <c r="B310">
-        <v>1</v>
-      </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-      <c r="D310">
-        <v>1</v>
-      </c>
-      <c r="E310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>1</v>
-      </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311">
-        <v>1</v>
-      </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-      <c r="E311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>1</v>
-      </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-      <c r="C312">
-        <v>1</v>
-      </c>
-      <c r="D312">
-        <v>1</v>
-      </c>
-      <c r="E312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>1</v>
-      </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>1</v>
-      </c>
-      <c r="E313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>-1</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
-      </c>
-      <c r="E314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>1</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>1</v>
-      </c>
-      <c r="E315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>1</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316">
-        <v>1</v>
-      </c>
-      <c r="D316">
-        <v>1</v>
-      </c>
-      <c r="E316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-      <c r="C317">
-        <v>1</v>
-      </c>
-      <c r="D317">
-        <v>1</v>
-      </c>
-      <c r="E317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>1</v>
-      </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-      <c r="C318">
-        <v>1</v>
-      </c>
-      <c r="D318">
-        <v>1</v>
-      </c>
-      <c r="E318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>1</v>
-      </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>1</v>
-      </c>
-      <c r="E319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>1</v>
-      </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-      <c r="C320">
-        <v>1</v>
-      </c>
-      <c r="D320">
-        <v>1</v>
-      </c>
-      <c r="E320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>1</v>
-      </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321">
-        <v>1</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
-      </c>
-      <c r="E321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>1</v>
-      </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-      <c r="D322">
-        <v>1</v>
-      </c>
-      <c r="E322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-      <c r="D323">
-        <v>-1</v>
-      </c>
-      <c r="E323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>1</v>
-      </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-      <c r="D324">
-        <v>1</v>
-      </c>
-      <c r="E324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>1</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325">
-        <v>1</v>
-      </c>
-      <c r="E325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>1</v>
-      </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>1</v>
-      </c>
-      <c r="E326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327">
-        <v>1</v>
-      </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
-      </c>
-      <c r="E327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328">
-        <v>1</v>
-      </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-      <c r="D328">
-        <v>1</v>
-      </c>
-      <c r="E328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>1</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-      <c r="D329">
-        <v>1</v>
-      </c>
-      <c r="E329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330">
-        <v>1</v>
-      </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-      <c r="C330">
-        <v>1</v>
-      </c>
-      <c r="D330">
-        <v>1</v>
-      </c>
-      <c r="E330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331">
-        <v>1</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
-      </c>
-      <c r="E331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332">
-        <v>1</v>
-      </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332">
-        <v>1</v>
-      </c>
-      <c r="D332">
-        <v>1</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-      <c r="C333">
-        <v>1</v>
-      </c>
-      <c r="D333">
-        <v>1</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>1</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-      <c r="C334">
-        <v>1</v>
-      </c>
-      <c r="D334">
-        <v>1</v>
-      </c>
-      <c r="E334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335">
-        <v>1</v>
-      </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-      <c r="C335">
-        <v>1</v>
-      </c>
-      <c r="D335">
-        <v>1</v>
-      </c>
-      <c r="E335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>1</v>
-      </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-      <c r="C336">
-        <v>1</v>
-      </c>
-      <c r="D336">
-        <v>1</v>
-      </c>
-      <c r="E336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>1</v>
-      </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-      <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337">
-        <v>-1</v>
-      </c>
-      <c r="E337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>1</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>1</v>
-      </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
-      <c r="C339">
-        <v>1</v>
-      </c>
-      <c r="D339">
-        <v>1</v>
-      </c>
-      <c r="E339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>1</v>
-      </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-      <c r="C340">
-        <v>1</v>
-      </c>
-      <c r="D340">
-        <v>1</v>
-      </c>
-      <c r="E340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341">
-        <v>1</v>
-      </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-      <c r="C341">
-        <v>-1</v>
-      </c>
-      <c r="D341">
-        <v>1</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342">
-        <v>-1</v>
-      </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>1</v>
-      </c>
-      <c r="E342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>1</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343">
-        <v>1</v>
-      </c>
-      <c r="E343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344">
-        <v>1</v>
-      </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
-      <c r="E344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345">
-        <v>1</v>
-      </c>
-      <c r="B345">
-        <v>1</v>
-      </c>
-      <c r="C345">
-        <v>1</v>
-      </c>
-      <c r="D345">
-        <v>1</v>
-      </c>
-      <c r="E345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346">
-        <v>1</v>
-      </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-      <c r="D346">
-        <v>-1</v>
-      </c>
-      <c r="E346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>1</v>
-      </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-      <c r="C347">
-        <v>1</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
-      <c r="E347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348">
-        <v>1</v>
-      </c>
-      <c r="B348">
-        <v>-1</v>
-      </c>
-      <c r="C348">
-        <v>1</v>
-      </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-      <c r="E348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>1</v>
-      </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
-      <c r="C349">
-        <v>1</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
-      </c>
-      <c r="E349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>1</v>
-      </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
-      <c r="C350">
-        <v>1</v>
-      </c>
-      <c r="D350">
-        <v>1</v>
-      </c>
-      <c r="E350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>1</v>
-      </c>
-      <c r="B351">
-        <v>1</v>
-      </c>
-      <c r="C351">
-        <v>1</v>
-      </c>
-      <c r="D351">
-        <v>1</v>
-      </c>
-      <c r="E351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>1</v>
-      </c>
-      <c r="B352">
-        <v>1</v>
-      </c>
-      <c r="C352">
-        <v>1</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-      <c r="E352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>-1</v>
-      </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
-      <c r="C353">
-        <v>1</v>
-      </c>
-      <c r="D353">
-        <v>1</v>
-      </c>
-      <c r="E353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>1</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354">
-        <v>1</v>
-      </c>
-      <c r="D354">
-        <v>1</v>
-      </c>
-      <c r="E354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>1</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-      <c r="C355">
-        <v>-1</v>
-      </c>
-      <c r="D355">
-        <v>1</v>
-      </c>
-      <c r="E355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>1</v>
-      </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-      <c r="C356">
-        <v>1</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
-      <c r="E356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>1</v>
-      </c>
-      <c r="B357">
-        <v>1</v>
-      </c>
-      <c r="C357">
-        <v>1</v>
-      </c>
-      <c r="D357">
-        <v>-1</v>
-      </c>
-      <c r="E357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>1</v>
-      </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-      <c r="C358">
-        <v>1</v>
-      </c>
-      <c r="D358">
-        <v>1</v>
-      </c>
-      <c r="E358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>1</v>
-      </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
-      </c>
-      <c r="E359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>1</v>
-      </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360">
-        <v>1</v>
-      </c>
-      <c r="E360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>1</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-      <c r="C361">
-        <v>1</v>
-      </c>
-      <c r="D361">
-        <v>1</v>
-      </c>
-      <c r="E361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>1</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362">
-        <v>1</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
-      <c r="E362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>-1</v>
-      </c>
-      <c r="B363">
-        <v>1</v>
-      </c>
-      <c r="C363">
-        <v>1</v>
-      </c>
-      <c r="D363">
-        <v>1</v>
-      </c>
-      <c r="E363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>1</v>
-      </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364">
-        <v>1</v>
-      </c>
-      <c r="E364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>1</v>
-      </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365">
-        <v>1</v>
-      </c>
-      <c r="D365">
-        <v>-1</v>
-      </c>
-      <c r="E365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>1</v>
-      </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
-      <c r="D366">
-        <v>1</v>
-      </c>
-      <c r="E366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>1</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367">
-        <v>1</v>
-      </c>
-      <c r="D367">
-        <v>1</v>
-      </c>
-      <c r="E367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>1</v>
-      </c>
-      <c r="C368">
-        <v>1</v>
-      </c>
-      <c r="D368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>1</v>
-      </c>
-      <c r="C369">
-        <v>1</v>
-      </c>
-      <c r="D369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>1</v>
-      </c>
-      <c r="C370">
-        <v>1</v>
-      </c>
-      <c r="D370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>1</v>
-      </c>
-      <c r="C371">
-        <v>1</v>
-      </c>
-      <c r="D371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>1</v>
-      </c>
-      <c r="C372">
-        <v>1</v>
-      </c>
-      <c r="D372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>1</v>
-      </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>1</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>1</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-      <c r="D375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>1</v>
-      </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="D376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>1</v>
-      </c>
-      <c r="C377">
-        <v>1</v>
-      </c>
-      <c r="D377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>1</v>
-      </c>
-      <c r="C378">
-        <v>-1</v>
-      </c>
-      <c r="D378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>1</v>
-      </c>
-      <c r="C379">
-        <v>1</v>
-      </c>
-      <c r="D379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>1</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-      <c r="D380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>1</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-      <c r="D381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>1</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-      <c r="D382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>1</v>
-      </c>
-      <c r="C383">
-        <v>1</v>
-      </c>
-      <c r="D383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>1</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-      <c r="D384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>1</v>
-      </c>
-      <c r="C385">
-        <v>1</v>
-      </c>
-      <c r="D385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>1</v>
-      </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-      <c r="D386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>-1</v>
-      </c>
-      <c r="C387">
-        <v>1</v>
-      </c>
-      <c r="D387">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>1</v>
-      </c>
-      <c r="C388">
-        <v>-1</v>
-      </c>
-      <c r="D388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>1</v>
-      </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-      <c r="D389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>1</v>
-      </c>
-      <c r="C390">
-        <v>1</v>
-      </c>
-      <c r="D390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>1</v>
-      </c>
-      <c r="C391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>1</v>
-      </c>
-      <c r="C392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>1</v>
-      </c>
-      <c r="C393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>1</v>
-      </c>
-      <c r="C394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>1</v>
-      </c>
-      <c r="C395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>1</v>
-      </c>
-      <c r="C396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>1</v>
-      </c>
-      <c r="C397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>1</v>
-      </c>
-      <c r="C398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>1</v>
-      </c>
-      <c r="C399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>1</v>
-      </c>
-      <c r="C400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>1</v>
-      </c>
-      <c r="C401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>1</v>
-      </c>
-      <c r="C402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>1</v>
-      </c>
-      <c r="C403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>1</v>
-      </c>
-      <c r="C404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>1</v>
-      </c>
-      <c r="C405">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>1</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>1</v>
-      </c>
-      <c r="C407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>1</v>
-      </c>
-      <c r="C408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>1</v>
-      </c>
-      <c r="C409">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>1</v>
-      </c>
-      <c r="C410">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>1</v>
-      </c>
-      <c r="C411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>1</v>
-      </c>
-      <c r="C412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>1</v>
-      </c>
-      <c r="C413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>1</v>
-      </c>
-      <c r="C414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>1</v>
-      </c>
-      <c r="C415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>1</v>
-      </c>
-      <c r="C416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>1</v>
-      </c>
-      <c r="C417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>1</v>
-      </c>
-      <c r="C418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>1</v>
-      </c>
-      <c r="C419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>1</v>
-      </c>
-      <c r="C420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>-1</v>
-      </c>
-      <c r="C421">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>1</v>
-      </c>
-      <c r="C422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>1</v>
-      </c>
-      <c r="C423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>1</v>
-      </c>
-      <c r="C424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>1</v>
-      </c>
-      <c r="C425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>-1</v>
-      </c>
-      <c r="C426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>1</v>
-      </c>
-      <c r="C427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>1</v>
-      </c>
-      <c r="C428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>1</v>
-      </c>
-      <c r="C429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>-1</v>
-      </c>
-      <c r="C430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>1</v>
-      </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>1</v>
-      </c>
-      <c r="C432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>1</v>
-      </c>
-      <c r="C433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C503">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C504">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C505">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C509">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C511">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C518">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C527">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C531">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C534">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C537">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C538">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C541">
         <v>1</v>
       </c>
     </row>
